--- a/01-Docs/Night_Light_Calculation_Measumenrent.xlsx
+++ b/01-Docs/Night_Light_Calculation_Measumenrent.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtolenti89\Documents\05_Electronics\02-Projects\night-light-sensor\01-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025455E-4D6E-46CE-BC48-DE9F009542DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BC6F2-4B13-44AD-8303-70143D11EFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{78941B7A-8C7C-490A-99B0-D9AD89AA7379}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery" sheetId="1" r:id="rId1"/>
     <sheet name="Lamps" sheetId="2" r:id="rId2"/>
     <sheet name="Charger" sheetId="4" r:id="rId3"/>
     <sheet name="LDR" sheetId="3" r:id="rId4"/>
+    <sheet name="Boost" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Capacity [mAH]</t>
-  </si>
-  <si>
-    <t>Curr. Cons. [mA]</t>
-  </si>
-  <si>
     <t>Time  [h]</t>
   </si>
   <si>
@@ -88,6 +83,78 @@
   </si>
   <si>
     <t>I_q</t>
+  </si>
+  <si>
+    <t>Single Cell Voltage [V]</t>
+  </si>
+  <si>
+    <t>Capacity [AH]</t>
+  </si>
+  <si>
+    <t>Vout[V]</t>
+  </si>
+  <si>
+    <t>Iout [A]</t>
+  </si>
+  <si>
+    <t>Pout [W]</t>
+  </si>
+  <si>
+    <t>Vin min [V]</t>
+  </si>
+  <si>
+    <t>Power Capacity [WH]</t>
+  </si>
+  <si>
+    <t>LED 5W</t>
+  </si>
+  <si>
+    <t>threshol</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>goood</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Voltage [V]</t>
+  </si>
+  <si>
+    <t>Current [A]</t>
+  </si>
+  <si>
+    <t>Zener Diode</t>
+  </si>
+  <si>
+    <t>V fwd [V]</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>R1 [Ohm]</t>
+  </si>
+  <si>
+    <t>R2 [Ohm]</t>
+  </si>
+  <si>
+    <t>Vref [V]</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1216,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -1570,57 +1637,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD017D-FFFF-4EBC-8BF2-ACBE0E08E062}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f>(B3*B2-B4)*B1</f>
+        <v>2.5599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>B7*B8</f>
+        <v>0.42</v>
+      </c>
+      <c r="C9">
+        <f>C7*C8</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11">
+        <f>B5/B9</f>
+        <v>6.0952380952380949</v>
+      </c>
+      <c r="C11">
+        <f>C5/C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>B2*B1/B3</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>B4/24</f>
-        <v>10</v>
+      <c r="B12">
+        <f>B11/24</f>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="C12">
+        <f>C11/24</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1630,99 +1757,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7251621-4000-47E7-B755-9BCEFAD6590D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.7</v>
       </c>
       <c r="B4" s="1">
         <v>0.01</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>A4*B4</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>12.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4*G4</f>
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.8</v>
       </c>
       <c r="B5" s="1">
         <v>0.03</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C9" si="0">A5*B5</f>
+        <v>8.3999999999999991E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="1">F5*G5</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.9</v>
       </c>
       <c r="B6" s="1">
         <v>0.06</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>13.37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.167125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>0.09</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>13.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2349</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1</v>
       </c>
       <c r="B8" s="1">
         <v>0.13</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5978</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.2</v>
       </c>
       <c r="B9" s="1">
         <v>0.15</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>14.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.17015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1733,70 +2002,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2901AE-7C57-493C-81E6-D64FCE168C0A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1">
-        <v>3.9</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
-      </c>
-      <c r="D2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <f>B3*(B1-B2)/B2</f>
-        <v>5600</v>
-      </c>
-      <c r="D4">
-        <f>D3*(D1-D2)/D2</f>
-        <v>10000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B1/(B3+B4)</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="D5" s="1">
-        <f>D1/(D3+D4)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>5.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B15*(B16+C17)/B16</f>
+        <v>2.5024999999999999</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6800</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>B16*(B14-B15)/B15</f>
+        <v>8160</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D17">
+        <f>D16*(D14-D15)/D15</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B14/(B16+B17)</f>
+        <v>3.6764705882352941E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D14/(D16+D17)</f>
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
@@ -1818,4 +2128,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7801BB1-FCCC-44FF-93F0-36CB88A83775}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <f>B4*(1+C2/B3)</f>
+        <v>13.923529411764706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <f>(B1/B4-1)*B3</f>
+        <v>151866.66666666669</v>
+      </c>
+      <c r="C2">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>